--- a/Sample/excel/Sample2.xlsx
+++ b/Sample/excel/Sample2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
+    <workbookView xWindow="1308" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="11">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,6 +60,10 @@
   </si>
   <si>
     <t>code4</t>
+  </si>
+  <si>
+    <t>!测试多级输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -384,35 +388,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C4"/>
+  <dimension ref="A2:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
       <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
       <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
       <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -568,7 +575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C6"/>
     </sheetView>
   </sheetViews>
